--- a/FixtureBookTest/FixtureTest/Cast/Temp/PocoFactoryTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/PocoFactoryTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>e|f|g</t>
     <phoneticPr fontId="4"/>
@@ -242,6 +242,33 @@
   </si>
   <si>
     <t>A. テストケース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定されたプロパティが存在しない場合は例外が発生する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -730,9 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F53"/>
+  <dimension ref="B2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
@@ -747,7 +776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1">
+    <row r="4" spans="2:5">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
@@ -757,13 +786,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1">
+    <row r="7" spans="2:5">
       <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1">
+    <row r="8" spans="2:5">
       <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
@@ -771,7 +800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1">
+    <row r="9" spans="2:5">
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
@@ -779,7 +808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1">
+    <row r="10" spans="2:5">
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
@@ -787,20 +816,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1">
+    <row r="11" spans="2:5">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1">
+    <row r="13" spans="2:5">
       <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1">
+    <row r="14" spans="2:5">
       <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
@@ -808,7 +837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1">
+    <row r="15" spans="2:5">
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
@@ -821,7 +850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1">
+    <row r="20" spans="2:5">
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
@@ -831,13 +860,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1">
+    <row r="23" spans="2:5">
       <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1">
+    <row r="24" spans="2:5">
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
@@ -850,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="1" customFormat="1">
+    <row r="29" spans="2:5">
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -860,13 +889,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="1" customFormat="1">
+    <row r="32" spans="2:5">
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="2:6" s="1" customFormat="1">
+    <row r="33" spans="2:6">
       <c r="D33" s="3" t="s">
         <v>31</v>
       </c>
@@ -877,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="1" customFormat="1">
+    <row r="34" spans="2:6">
       <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
@@ -888,13 +917,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="1" customFormat="1">
+    <row r="36" spans="2:6">
       <c r="C36" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:6" s="1" customFormat="1">
+    <row r="37" spans="2:6">
       <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
@@ -905,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="1" customFormat="1">
+    <row r="38" spans="2:6">
       <c r="D38" s="2" t="s">
         <v>22</v>
       </c>
@@ -916,13 +945,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="1" customFormat="1">
+    <row r="40" spans="2:6">
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:6" s="1" customFormat="1">
+    <row r="41" spans="2:6">
       <c r="D41" s="3" t="s">
         <v>18</v>
       </c>
@@ -933,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="1" customFormat="1">
+    <row r="42" spans="2:6">
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="1" customFormat="1">
+    <row r="43" spans="2:6">
       <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
@@ -960,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:6" s="1" customFormat="1">
+    <row r="48" spans="2:6">
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,13 +999,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="1" customFormat="1">
+    <row r="51" spans="2:6">
       <c r="C51" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:6" s="1" customFormat="1">
+    <row r="52" spans="2:6">
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
@@ -987,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:6" s="1" customFormat="1">
+    <row r="53" spans="2:6">
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
@@ -996,6 +1025,37 @@
       </c>
       <c r="F53" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="7" customFormat="1">
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="6" customFormat="1">
+      <c r="B59" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="D62" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/FixtureBookTest/FixtureTest/Cast/Temp/PocoFactoryTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/PocoFactoryTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>e|f|g</t>
     <phoneticPr fontId="4"/>
@@ -270,6 +270,48 @@
   <si>
     <t>aaa</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>intを作成できる</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>stringを作成できる</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -757,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
@@ -1058,6 +1100,78 @@
         <v>57</v>
       </c>
     </row>
+    <row r="64" spans="2:6" s="7" customFormat="1">
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="D70" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="7" customFormat="1">
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="C76" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="C79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="D80" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
